--- a/benchmarks/nifty100Benchmark.xlsx
+++ b/benchmarks/nifty100Benchmark.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qkrishi\pilot_PO\Streamlit\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85321F6-E4AC-4DA3-8ED8-0E11B39F2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB94EAD-CD82-44D9-9735-3FF1F052C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nifty100Benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="228">
   <si>
     <t>Company name</t>
   </si>
@@ -64,622 +75,657 @@
     <t>macrotech developers</t>
   </si>
   <si>
+    <t>LODHA.NS</t>
+  </si>
+  <si>
+    <t>Large Cap</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Build Mate</t>
+  </si>
+  <si>
     <t>shree cement</t>
   </si>
   <si>
+    <t>SHREECEM.NS</t>
+  </si>
+  <si>
+    <t>Basic Materials</t>
+  </si>
+  <si>
     <t>zomato</t>
   </si>
   <si>
+    <t>ZOMATO.NS</t>
+  </si>
+  <si>
+    <t>Consumer Cyclical</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
     <t>info edge india</t>
   </si>
   <si>
+    <t>NAUKRI.NS</t>
+  </si>
+  <si>
+    <t>Communication Services</t>
+  </si>
+  <si>
     <t>torrent pharmaceuticals</t>
   </si>
   <si>
+    <t>TORNTPHARM.NS</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
     <t>varun beverages</t>
   </si>
   <si>
+    <t>VBL.NS</t>
+  </si>
+  <si>
+    <t>Consumer Defensive</t>
+  </si>
+  <si>
+    <t>Staples</t>
+  </si>
+  <si>
     <t>adani total gas</t>
   </si>
   <si>
+    <t>ATGL.NS</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>cipla</t>
   </si>
   <si>
+    <t>CIPLA.NS</t>
+  </si>
+  <si>
     <t>wipro</t>
   </si>
   <si>
+    <t>WIPRO.NS</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>itc</t>
   </si>
   <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
     <t>hindustan unilever</t>
   </si>
   <si>
+    <t>HINDUNILVR.NS</t>
+  </si>
+  <si>
     <t>divis laboratories</t>
   </si>
   <si>
+    <t>DIVISLAB.NS</t>
+  </si>
+  <si>
     <t>infosys</t>
   </si>
   <si>
+    <t>INFY.NS</t>
+  </si>
+  <si>
     <t>hcl technologies</t>
   </si>
   <si>
+    <t>HCLTECH.NS</t>
+  </si>
+  <si>
     <t>tech mahindra</t>
   </si>
   <si>
+    <t>TECHM.NS</t>
+  </si>
+  <si>
     <t>nhpc</t>
   </si>
   <si>
+    <t>NHPC.NS</t>
+  </si>
+  <si>
     <t>life insurance corporation of india</t>
   </si>
   <si>
+    <t>LICI.NS</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>interglobe aviation</t>
   </si>
   <si>
+    <t>INDIGO.NS</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
     <t>jsw energy</t>
   </si>
   <si>
+    <t>JSWENERGY.NS</t>
+  </si>
+  <si>
     <t>apollo hospitals enterprise</t>
   </si>
   <si>
+    <t>APOLLOHOSP.NS</t>
+  </si>
+  <si>
     <t>lti mindtree</t>
   </si>
   <si>
+    <t>LTIM.NS</t>
+  </si>
+  <si>
     <t>tata motors</t>
   </si>
   <si>
+    <t>TATAMOTORS.NS</t>
+  </si>
+  <si>
+    <t>Auto &amp; Anc</t>
+  </si>
+  <si>
     <t>bajaj finance</t>
   </si>
   <si>
+    <t>BAJFINANCE.NS</t>
+  </si>
+  <si>
+    <t>NBFC</t>
+  </si>
+  <si>
     <t>trent</t>
   </si>
   <si>
+    <t>TRENT.NS</t>
+  </si>
+  <si>
+    <t>Discretionary</t>
+  </si>
+  <si>
     <t>sbi life insurance company</t>
   </si>
   <si>
+    <t>SBILIFE.NS</t>
+  </si>
+  <si>
     <t>dabur india</t>
   </si>
   <si>
+    <t>DABUR.NS</t>
+  </si>
+  <si>
     <t>adani ports &amp; special economic zone</t>
   </si>
   <si>
+    <t>ADANIPORTS.NS</t>
+  </si>
+  <si>
     <t>icici bank</t>
   </si>
   <si>
+    <t>ICICIBANK.NS</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
     <t>abb india</t>
   </si>
   <si>
+    <t>ABB.NS</t>
+  </si>
+  <si>
     <t>titan company</t>
   </si>
   <si>
+    <t>TITAN.NS</t>
+  </si>
+  <si>
     <t>adani enterprises</t>
   </si>
   <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
     <t>adani power</t>
   </si>
   <si>
+    <t>ADANIPOWER.NS</t>
+  </si>
+  <si>
     <t>ambuja cements</t>
   </si>
   <si>
+    <t>AMBUJACEM.NS</t>
+  </si>
+  <si>
     <t>tata power</t>
   </si>
   <si>
+    <t>TATAPOWER.NS</t>
+  </si>
+  <si>
     <t>ntpc</t>
   </si>
   <si>
+    <t>NTPC.NS</t>
+  </si>
+  <si>
     <t>sun pharmaceutical industries</t>
   </si>
   <si>
+    <t>SUNPHARMA.NS</t>
+  </si>
+  <si>
     <t>bajaj auto</t>
   </si>
   <si>
+    <t>BAJAJ-AUTO.NS</t>
+  </si>
+  <si>
     <t>hindustan aeronautics</t>
   </si>
   <si>
+    <t>HAL.NS</t>
+  </si>
+  <si>
     <t>bank of baroda</t>
   </si>
   <si>
+    <t>BANKBARODA.NS</t>
+  </si>
+  <si>
     <t>state bank of india</t>
   </si>
   <si>
+    <t>SBIN.NS</t>
+  </si>
+  <si>
     <t>axis bank</t>
   </si>
   <si>
+    <t>AXISBANK.NS</t>
+  </si>
+  <si>
     <t>icici prudential life insurance company</t>
   </si>
   <si>
+    <t>ICICIPRULI.NS</t>
+  </si>
+  <si>
     <t>hdfc life insurance company</t>
   </si>
   <si>
+    <t>HDFCLIFE.NS</t>
+  </si>
+  <si>
     <t>ultratech cement</t>
   </si>
   <si>
+    <t>ULTRACEMCO.NS</t>
+  </si>
+  <si>
     <t>mahindra &amp; mahindra</t>
   </si>
   <si>
+    <t>M&amp;M.NS</t>
+  </si>
+  <si>
     <t>tata steel</t>
   </si>
   <si>
+    <t>TATASTEEL.NS</t>
+  </si>
+  <si>
+    <t>Metals &amp; min</t>
+  </si>
+  <si>
     <t>indian railway finance corporation</t>
   </si>
   <si>
+    <t>IRFC.NS</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
     <t>britannia industries</t>
   </si>
   <si>
+    <t>BRITANNIA.NS</t>
+  </si>
+  <si>
     <t>maruti suzuki india</t>
   </si>
   <si>
+    <t>MARUTI.NS</t>
+  </si>
+  <si>
     <t>power grid corporation of india</t>
   </si>
   <si>
+    <t>POWERGRID.NS</t>
+  </si>
+  <si>
     <t>nestle india</t>
   </si>
   <si>
+    <t>NESTLEIND.NS</t>
+  </si>
+  <si>
     <t>bharat petroleum corporation</t>
   </si>
   <si>
+    <t>BPCL.NS</t>
+  </si>
+  <si>
+    <t>Oil &amp; gas</t>
+  </si>
+  <si>
     <t>tata consumer products</t>
   </si>
   <si>
+    <t>TATACONSUM.NS</t>
+  </si>
+  <si>
     <t>hdfc bank</t>
   </si>
   <si>
+    <t>HDFCBANK.NS</t>
+  </si>
+  <si>
     <t>power finance corporation</t>
   </si>
   <si>
+    <t>PFC.NS</t>
+  </si>
+  <si>
     <t>oil &amp; natural gas corporation</t>
   </si>
   <si>
+    <t>ONGC.NS</t>
+  </si>
+  <si>
     <t>dr reddys laboratories</t>
   </si>
   <si>
+    <t>DRREDDY.NS</t>
+  </si>
+  <si>
     <t>bharat electronics</t>
   </si>
   <si>
+    <t>BEL.NS</t>
+  </si>
+  <si>
     <t>zydus life science</t>
   </si>
   <si>
+    <t>ZYDUSLIFE.NS</t>
+  </si>
+  <si>
     <t>reliance industries</t>
   </si>
   <si>
+    <t>RELIANCE.NS</t>
+  </si>
+  <si>
     <t>larsen &amp; toubro</t>
   </si>
   <si>
+    <t>LT.NS</t>
+  </si>
+  <si>
     <t>bajaj finserv</t>
   </si>
   <si>
+    <t>BAJAJFINSV.NS</t>
+  </si>
+  <si>
     <t>coal india</t>
   </si>
   <si>
+    <t>COALINDIA.NS</t>
+  </si>
+  <si>
     <t>irctc</t>
   </si>
   <si>
+    <t>IRCTC.NS</t>
+  </si>
+  <si>
     <t>asian paints</t>
   </si>
   <si>
+    <t>ASIANPAINT.NS</t>
+  </si>
+  <si>
     <t>tata consultancy services</t>
   </si>
   <si>
+    <t>TCS.NS</t>
+  </si>
+  <si>
     <t>eicher motors</t>
   </si>
   <si>
+    <t>EICHERMOT.NS</t>
+  </si>
+  <si>
     <t>indian oil corporation</t>
   </si>
   <si>
+    <t>IOC.NS</t>
+  </si>
+  <si>
     <t>vedanta</t>
   </si>
   <si>
+    <t>VEDL.NS</t>
+  </si>
+  <si>
     <t>bosch</t>
   </si>
   <si>
+    <t>BOSCHLTD.NS</t>
+  </si>
+  <si>
     <t>punjab national bank</t>
   </si>
   <si>
+    <t>PNB.NS</t>
+  </si>
+  <si>
     <t>canara bank</t>
   </si>
   <si>
+    <t>CANBK.NS</t>
+  </si>
+  <si>
     <t>havells india</t>
   </si>
   <si>
+    <t>HAVELLS.NS</t>
+  </si>
+  <si>
     <t>godrej consumer products</t>
   </si>
   <si>
+    <t>GODREJCP.NS</t>
+  </si>
+  <si>
     <t>gail</t>
   </si>
   <si>
+    <t>GAIL.NS</t>
+  </si>
+  <si>
     <t>bharat heavy electricals</t>
   </si>
   <si>
+    <t>BHEL.NS</t>
+  </si>
+  <si>
     <t>adani green energy</t>
   </si>
   <si>
+    <t>ADANIGREEN.NS</t>
+  </si>
+  <si>
     <t>hindalco industries</t>
   </si>
   <si>
+    <t>HINDALCO.NS</t>
+  </si>
+  <si>
     <t>avenue supermarts</t>
   </si>
   <si>
+    <t>DMART.NS</t>
+  </si>
+  <si>
     <t>siemens</t>
   </si>
   <si>
+    <t>SIEMENS.NS</t>
+  </si>
+  <si>
     <t>dlf</t>
   </si>
   <si>
+    <t>DLF.NS</t>
+  </si>
+  <si>
     <t>icici lombard general insurance company</t>
   </si>
   <si>
+    <t>ICICIGI.NS</t>
+  </si>
+  <si>
     <t>indusind bank</t>
   </si>
   <si>
+    <t>INDUSINDBK.NS</t>
+  </si>
+  <si>
     <t>jsw steel</t>
   </si>
   <si>
+    <t>JSWSTEEL.NS</t>
+  </si>
+  <si>
     <t>jindal steel &amp; power</t>
   </si>
   <si>
+    <t>JINDALSTEL.NS</t>
+  </si>
+  <si>
     <t>samvardhana motherson international</t>
   </si>
   <si>
+    <t>MOTHERSON.NS</t>
+  </si>
+  <si>
     <t>hero motocorp</t>
   </si>
   <si>
+    <t>HEROMOTOCO.NS</t>
+  </si>
+  <si>
     <t>bharti airtel</t>
   </si>
   <si>
+    <t>BHARTIARTL.NS</t>
+  </si>
+  <si>
+    <t>Tele &amp; Media</t>
+  </si>
+  <si>
     <t>tvs motor company</t>
   </si>
   <si>
+    <t>TVSMOTOR.NS</t>
+  </si>
+  <si>
     <t>union bank of india</t>
   </si>
   <si>
+    <t>UNIONBANK.NS</t>
+  </si>
+  <si>
     <t>cholamandalam investment &amp; finance company</t>
   </si>
   <si>
+    <t>CHOLAFIN.NS</t>
+  </si>
+  <si>
     <t>grasim industries</t>
   </si>
   <si>
+    <t>GRASIM.NS</t>
+  </si>
+  <si>
     <t>pidilite industries</t>
   </si>
   <si>
+    <t>PIDILITIND.NS</t>
+  </si>
+  <si>
+    <t>Agri &amp; Chem</t>
+  </si>
+  <si>
     <t>shriram finance</t>
   </si>
   <si>
-    <t>LODHA.NS</t>
-  </si>
-  <si>
-    <t>SHREECEM.NS</t>
-  </si>
-  <si>
-    <t>ZOMATO.NS</t>
-  </si>
-  <si>
-    <t>NAUKRI.NS</t>
-  </si>
-  <si>
-    <t>TORNTPHARM.NS</t>
-  </si>
-  <si>
-    <t>VBL.NS</t>
-  </si>
-  <si>
-    <t>ATGL.NS</t>
-  </si>
-  <si>
-    <t>CIPLA.NS</t>
-  </si>
-  <si>
-    <t>WIPRO.NS</t>
-  </si>
-  <si>
-    <t>ITC.NS</t>
-  </si>
-  <si>
-    <t>HINDUNILVR.NS</t>
-  </si>
-  <si>
-    <t>DIVISLAB.NS</t>
-  </si>
-  <si>
-    <t>INFY.NS</t>
-  </si>
-  <si>
-    <t>HCLTECH.NS</t>
-  </si>
-  <si>
-    <t>TECHM.NS</t>
-  </si>
-  <si>
-    <t>NHPC.NS</t>
-  </si>
-  <si>
-    <t>LICI.NS</t>
-  </si>
-  <si>
-    <t>INDIGO.NS</t>
-  </si>
-  <si>
-    <t>JSWENERGY.NS</t>
-  </si>
-  <si>
-    <t>APOLLOHOSP.NS</t>
-  </si>
-  <si>
-    <t>LTIM.NS</t>
-  </si>
-  <si>
-    <t>TATAMOTORS.NS</t>
-  </si>
-  <si>
-    <t>BAJFINANCE.NS</t>
-  </si>
-  <si>
-    <t>TRENT.NS</t>
-  </si>
-  <si>
-    <t>SBILIFE.NS</t>
-  </si>
-  <si>
-    <t>DABUR.NS</t>
-  </si>
-  <si>
-    <t>ADANIPORTS.NS</t>
-  </si>
-  <si>
-    <t>ICICIBANK.NS</t>
-  </si>
-  <si>
-    <t>ABB.NS</t>
-  </si>
-  <si>
-    <t>TITAN.NS</t>
-  </si>
-  <si>
-    <t>ADANIENT.NS</t>
-  </si>
-  <si>
-    <t>ADANIPOWER.NS</t>
-  </si>
-  <si>
-    <t>AMBUJACEM.NS</t>
-  </si>
-  <si>
-    <t>TATAPOWER.NS</t>
-  </si>
-  <si>
-    <t>NTPC.NS</t>
-  </si>
-  <si>
-    <t>SUNPHARMA.NS</t>
-  </si>
-  <si>
-    <t>BAJAJ-AUTO.NS</t>
-  </si>
-  <si>
-    <t>HAL.NS</t>
-  </si>
-  <si>
-    <t>BANKBARODA.NS</t>
-  </si>
-  <si>
-    <t>SBIN.NS</t>
-  </si>
-  <si>
-    <t>AXISBANK.NS</t>
-  </si>
-  <si>
-    <t>ICICIPRULI.NS</t>
-  </si>
-  <si>
-    <t>HDFCLIFE.NS</t>
-  </si>
-  <si>
-    <t>ULTRACEMCO.NS</t>
-  </si>
-  <si>
-    <t>M&amp;M.NS</t>
-  </si>
-  <si>
-    <t>TATASTEEL.NS</t>
-  </si>
-  <si>
-    <t>IRFC.NS</t>
-  </si>
-  <si>
-    <t>BRITANNIA.NS</t>
-  </si>
-  <si>
-    <t>MARUTI.NS</t>
-  </si>
-  <si>
-    <t>POWERGRID.NS</t>
-  </si>
-  <si>
-    <t>NESTLEIND.NS</t>
-  </si>
-  <si>
-    <t>BPCL.NS</t>
-  </si>
-  <si>
-    <t>TATACONSUM.NS</t>
-  </si>
-  <si>
-    <t>HDFCBANK.NS</t>
-  </si>
-  <si>
-    <t>PFC.NS</t>
-  </si>
-  <si>
-    <t>ONGC.NS</t>
-  </si>
-  <si>
-    <t>DRREDDY.NS</t>
-  </si>
-  <si>
-    <t>BEL.NS</t>
-  </si>
-  <si>
-    <t>ZYDUSLIFE.NS</t>
-  </si>
-  <si>
-    <t>RELIANCE.NS</t>
-  </si>
-  <si>
-    <t>LT.NS</t>
-  </si>
-  <si>
-    <t>BAJAJFINSV.NS</t>
-  </si>
-  <si>
-    <t>COALINDIA.NS</t>
-  </si>
-  <si>
-    <t>IRCTC.NS</t>
-  </si>
-  <si>
-    <t>ASIANPAINT.NS</t>
-  </si>
-  <si>
-    <t>TCS.NS</t>
-  </si>
-  <si>
-    <t>EICHERMOT.NS</t>
-  </si>
-  <si>
-    <t>IOC.NS</t>
-  </si>
-  <si>
-    <t>VEDL.NS</t>
-  </si>
-  <si>
-    <t>BOSCHLTD.NS</t>
-  </si>
-  <si>
-    <t>PNB.NS</t>
-  </si>
-  <si>
-    <t>CANBK.NS</t>
-  </si>
-  <si>
-    <t>HAVELLS.NS</t>
-  </si>
-  <si>
-    <t>GODREJCP.NS</t>
-  </si>
-  <si>
-    <t>GAIL.NS</t>
-  </si>
-  <si>
-    <t>BHEL.NS</t>
-  </si>
-  <si>
-    <t>ADANIGREEN.NS</t>
-  </si>
-  <si>
-    <t>HINDALCO.NS</t>
-  </si>
-  <si>
-    <t>DMART.NS</t>
-  </si>
-  <si>
-    <t>SIEMENS.NS</t>
-  </si>
-  <si>
-    <t>DLF.NS</t>
-  </si>
-  <si>
-    <t>ICICIGI.NS</t>
-  </si>
-  <si>
-    <t>INDUSINDBK.NS</t>
-  </si>
-  <si>
-    <t>JSWSTEEL.NS</t>
-  </si>
-  <si>
-    <t>JINDALSTEL.NS</t>
-  </si>
-  <si>
-    <t>MOTHERSON.NS</t>
-  </si>
-  <si>
-    <t>HEROMOTOCO.NS</t>
-  </si>
-  <si>
-    <t>BHARTIARTL.NS</t>
-  </si>
-  <si>
-    <t>TVSMOTOR.NS</t>
-  </si>
-  <si>
-    <t>UNIONBANK.NS</t>
-  </si>
-  <si>
-    <t>CHOLAFIN.NS</t>
-  </si>
-  <si>
-    <t>GRASIM.NS</t>
-  </si>
-  <si>
-    <t>PIDILITIND.NS</t>
-  </si>
-  <si>
     <t>SHRIRAMFIN.NS</t>
   </si>
   <si>
-    <t>Large Cap</t>
-  </si>
-  <si>
-    <t>Consumer Defensive</t>
-  </si>
-  <si>
-    <t>Real Estate</t>
-  </si>
-  <si>
-    <t>Basic Materials</t>
-  </si>
-  <si>
-    <t>Consumer Cyclical</t>
-  </si>
-  <si>
-    <t>Communication Services</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Energy</t>
+    <t>sector-from-api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +736,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -698,36 +744,231 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -740,282 +981,105 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="LibreOffice">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -1026,70 +1090,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
+      <selection activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="21.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1100,7 +1167,7 @@
         <v>148379</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>543287</v>
@@ -1109,7 +1176,7 @@
         <v>147157.70000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>0.15240999999999999</v>
@@ -1127,12 +1194,15 @@
         <v>17.42942</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0.378</v>
@@ -1141,7 +1211,7 @@
         <v>102272</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>500387</v>
@@ -1150,7 +1220,7 @@
         <v>99644.56</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>0.38019999999999998</v>
@@ -1168,12 +1238,15 @@
         <v>661.80150000000003</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>1.06</v>
@@ -1182,7 +1255,7 @@
         <v>286422</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>543320</v>
@@ -1191,7 +1264,7 @@
         <v>274715.40000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>731.82489999999996</v>
@@ -1203,12 +1276,15 @@
         <v>0.39422000000000001</v>
       </c>
       <c r="M4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0.42399999999999999</v>
@@ -1217,7 +1293,7 @@
         <v>114480</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>532777</v>
@@ -1226,7 +1302,7 @@
         <v>112453.2</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>0.27595999999999998</v>
@@ -1244,12 +1320,15 @@
         <v>50.200310000000002</v>
       </c>
       <c r="M5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0.42299999999999999</v>
@@ -1258,7 +1337,7 @@
         <v>114389</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>500420</v>
@@ -1267,7 +1346,7 @@
         <v>117411.8</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>0.80710999999999999</v>
@@ -1285,21 +1364,24 @@
         <v>47.372169999999997</v>
       </c>
       <c r="M6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>0.80999999999999994</v>
+        <v>0.81</v>
       </c>
       <c r="C7">
         <v>219068</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>540180</v>
@@ -1308,7 +1390,7 @@
         <v>212358.8</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>0.15923999999999999</v>
@@ -1326,12 +1408,15 @@
         <v>6.5272300000000003</v>
       </c>
       <c r="M7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>0.29099999999999998</v>
@@ -1340,7 +1425,7 @@
         <v>78625.399999999994</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>542066</v>
@@ -1349,7 +1434,7 @@
         <v>76684.259999999995</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>3.5860000000000003E-2</v>
@@ -1367,21 +1452,24 @@
         <v>6.0688899999999997</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B9">
-        <v>0.43299999999999988</v>
+        <v>0.433</v>
       </c>
       <c r="C9">
         <v>117144</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>500087</v>
@@ -1390,7 +1478,7 @@
         <v>121671.1</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>0.8629</v>
@@ -1408,12 +1496,15 @@
         <v>53.760480000000001</v>
       </c>
       <c r="M9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1.196</v>
@@ -1422,7 +1513,7 @@
         <v>323213</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>507685</v>
@@ -1431,7 +1522,7 @@
         <v>327118.3</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>0.15987000000000001</v>
@@ -1449,12 +1540,15 @@
         <v>11.16189</v>
       </c>
       <c r="M10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2.1749999999999998</v>
@@ -1463,7 +1557,7 @@
         <v>587820</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>500875</v>
@@ -1472,7 +1566,7 @@
         <v>583733.9</v>
       </c>
       <c r="G11" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>2.9471699999999998</v>
@@ -1490,12 +1584,15 @@
         <v>16.34695</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>2.0550000000000002</v>
@@ -1504,7 +1601,7 @@
         <v>555420</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>500696</v>
@@ -1513,7 +1610,7 @@
         <v>554468.30000000005</v>
       </c>
       <c r="G12" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>1.8221499999999999</v>
@@ -1531,21 +1628,24 @@
         <v>44.135460000000002</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B13">
-        <v>0.57400000000000007</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C13">
         <v>155274</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>532488</v>
@@ -1554,7 +1654,7 @@
         <v>154522.6</v>
       </c>
       <c r="G13" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>0.51539999999999997</v>
@@ -1572,12 +1672,15 @@
         <v>60.382240000000003</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>3.0369999999999999</v>
@@ -1586,7 +1689,7 @@
         <v>820754</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>500209</v>
@@ -1595,7 +1698,7 @@
         <v>806122.3</v>
       </c>
       <c r="G14" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H14">
         <v>2.1066699999999998</v>
@@ -1613,12 +1716,15 @@
         <v>63.50611</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1.9590000000000001</v>
@@ -1627,7 +1733,7 @@
         <v>529531</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>532281</v>
@@ -1636,7 +1742,7 @@
         <v>523433.8</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>2.7917800000000002</v>
@@ -1654,12 +1760,15 @@
         <v>57.847389999999997</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0.64100000000000001</v>
@@ -1668,7 +1777,7 @@
         <v>173210</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>532755</v>
@@ -1677,7 +1786,7 @@
         <v>171713.5</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <v>2.45105</v>
@@ -1695,12 +1804,15 @@
         <v>30.393630000000002</v>
       </c>
       <c r="M16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0.316</v>
@@ -1709,7 +1821,7 @@
         <v>85312.5</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>533098</v>
@@ -1718,7 +1830,7 @@
         <v>84820.28</v>
       </c>
       <c r="G17" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H17">
         <v>2.2501199999999999</v>
@@ -1736,12 +1848,15 @@
         <v>3.6193200000000001</v>
       </c>
       <c r="M17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>2.1520000000000001</v>
@@ -1750,7 +1865,7 @@
         <v>581742</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>543526</v>
@@ -1759,7 +1874,7 @@
         <v>572443.9</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H18">
         <v>1.1049100000000001</v>
@@ -1777,12 +1892,15 @@
         <v>57.338549999999998</v>
       </c>
       <c r="M18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0.627</v>
@@ -1791,7 +1909,7 @@
         <v>169386</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>539448</v>
@@ -1800,7 +1918,7 @@
         <v>171327.4</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>20.84038</v>
@@ -1812,12 +1930,15 @@
         <v>212.76240000000001</v>
       </c>
       <c r="M19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B20">
         <v>0.443</v>
@@ -1826,7 +1947,7 @@
         <v>119643</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>533148</v>
@@ -1835,7 +1956,7 @@
         <v>119537.8</v>
       </c>
       <c r="G20" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>0.29197000000000001</v>
@@ -1853,12 +1974,15 @@
         <v>10.474220000000001</v>
       </c>
       <c r="M20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>0.38400000000000001</v>
@@ -1867,7 +1991,7 @@
         <v>103865</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="E21">
         <v>508869</v>
@@ -1876,7 +2000,7 @@
         <v>104927.6</v>
       </c>
       <c r="G21" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H21">
         <v>0.21925</v>
@@ -1894,12 +2018,15 @@
         <v>62.575809999999997</v>
       </c>
       <c r="M21" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B22">
         <v>0.73399999999999999</v>
@@ -1908,7 +2035,7 @@
         <v>198339</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>540005</v>
@@ -1917,7 +2044,7 @@
         <v>184271</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>1.0449200000000001</v>
@@ -1935,12 +2062,15 @@
         <v>153.17330000000001</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>1.0609999999999999</v>
@@ -1949,7 +2079,7 @@
         <v>286888</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>500570</v>
@@ -1958,7 +2088,7 @@
         <v>273894.09999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <v>0.4032</v>
@@ -1976,12 +2106,15 @@
         <v>83.552260000000004</v>
       </c>
       <c r="M23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>1.637</v>
@@ -1990,7 +2123,7 @@
         <v>442465</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>500034</v>
@@ -1999,7 +2132,7 @@
         <v>428026.5</v>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H24">
         <v>0.52034000000000002</v>
@@ -2017,21 +2150,24 @@
         <v>292.7276</v>
       </c>
       <c r="M24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>0.91299999999999992</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="C25">
         <v>246850</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>500251</v>
@@ -2040,7 +2176,7 @@
         <v>252111.7</v>
       </c>
       <c r="G25" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H25">
         <v>4.512E-2</v>
@@ -2058,12 +2194,15 @@
         <v>24.844840000000001</v>
       </c>
       <c r="M25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>0.52300000000000002</v>
@@ -2072,7 +2211,7 @@
         <v>141258</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>540719</v>
@@ -2081,7 +2220,7 @@
         <v>140883.70000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H26">
         <v>0.19205</v>
@@ -2099,12 +2238,15 @@
         <v>18.79552</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0.33200000000000002</v>
@@ -2113,7 +2255,7 @@
         <v>89670.3</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E27">
         <v>500096</v>
@@ -2122,7 +2264,7 @@
         <v>89315.81</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H27">
         <v>1.09138</v>
@@ -2140,12 +2282,15 @@
         <v>10.38349</v>
       </c>
       <c r="M27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>0.98499999999999999</v>
@@ -2154,7 +2299,7 @@
         <v>266140</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="E28">
         <v>532921</v>
@@ -2163,7 +2308,7 @@
         <v>260296.8</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H28">
         <v>0.49792999999999998</v>
@@ -2181,12 +2326,15 @@
         <v>41.163330000000002</v>
       </c>
       <c r="M28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <v>3.4809999999999999</v>
@@ -2195,7 +2343,7 @@
         <v>940839</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>532174</v>
@@ -2204,7 +2352,7 @@
         <v>908296</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>0.77705999999999997</v>
@@ -2222,12 +2370,15 @@
         <v>62.772649999999999</v>
       </c>
       <c r="M29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>0.61299999999999999</v>
@@ -2236,7 +2387,7 @@
         <v>165594</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E30">
         <v>500002</v>
@@ -2245,7 +2396,7 @@
         <v>155792.9</v>
       </c>
       <c r="G30" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H30">
         <v>0.32373000000000002</v>
@@ -2263,12 +2414,15 @@
         <v>59.149349999999998</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>1.119</v>
@@ -2277,7 +2431,7 @@
         <v>302358</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>500114</v>
@@ -2286,7 +2440,7 @@
         <v>297767.8</v>
       </c>
       <c r="G31" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>0.32768999999999998</v>
@@ -2304,12 +2458,15 @@
         <v>39.435870000000001</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>1.0620000000000001</v>
@@ -2318,7 +2475,7 @@
         <v>287091</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>512599</v>
@@ -2327,7 +2484,7 @@
         <v>279236.7</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <v>5.373E-2</v>
@@ -2345,12 +2502,15 @@
         <v>31.900469999999999</v>
       </c>
       <c r="M32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>0.749</v>
@@ -2359,7 +2519,7 @@
         <v>202451</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="E33">
         <v>533096</v>
@@ -2368,7 +2528,7 @@
         <v>196048.2</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>9.4062999999999999</v>
@@ -2380,12 +2540,15 @@
         <v>54.038269999999997</v>
       </c>
       <c r="M33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>0.52</v>
@@ -2394,7 +2557,7 @@
         <v>140632</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>500425</v>
@@ -2403,7 +2566,7 @@
         <v>138747.79999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H34">
         <v>0.35504999999999998</v>
@@ -2421,21 +2584,24 @@
         <v>15.52413</v>
       </c>
       <c r="M34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B35">
-        <v>0.49699999999999989</v>
+        <v>0.497</v>
       </c>
       <c r="C35">
         <v>134396</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>500400</v>
@@ -2444,7 +2610,7 @@
         <v>131839.70000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <v>0.48472999999999999</v>
@@ -2462,12 +2628,15 @@
         <v>10.90602</v>
       </c>
       <c r="M35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <v>1.2529999999999999</v>
@@ -2476,7 +2645,7 @@
         <v>338656</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="E36">
         <v>532555</v>
@@ -2485,7 +2654,7 @@
         <v>327165.5</v>
       </c>
       <c r="G36" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H36">
         <v>2.0376400000000001</v>
@@ -2503,12 +2672,15 @@
         <v>21.609950000000001</v>
       </c>
       <c r="M36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>1.589</v>
@@ -2517,7 +2689,7 @@
         <v>429361</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E37">
         <v>524715</v>
@@ -2526,7 +2698,7 @@
         <v>437470.8</v>
       </c>
       <c r="G37" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>0.74041999999999997</v>
@@ -2544,21 +2716,24 @@
         <v>41.735770000000002</v>
       </c>
       <c r="M37" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="B38">
-        <v>0.91699999999999993</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="C38">
         <v>247893</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>532977</v>
@@ -2567,7 +2742,7 @@
         <v>250847.3</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>0.89061000000000001</v>
@@ -2585,12 +2760,15 @@
         <v>272.59449999999998</v>
       </c>
       <c r="M38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B39">
         <v>1.1439999999999999</v>
@@ -2599,7 +2777,7 @@
         <v>309081</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="E39">
         <v>541154</v>
@@ -2608,7 +2786,7 @@
         <v>293264.5</v>
       </c>
       <c r="G39" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H39">
         <v>0.79815999999999998</v>
@@ -2626,12 +2804,15 @@
         <v>114.19880000000001</v>
       </c>
       <c r="M39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>0.49</v>
@@ -2640,7 +2821,7 @@
         <v>132361</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E40">
         <v>532134</v>
@@ -2649,7 +2830,7 @@
         <v>128410.1</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H40">
         <v>3.0606900000000001</v>
@@ -2667,12 +2848,15 @@
         <v>36.268210000000003</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>2.8069999999999999</v>
@@ -2681,7 +2865,7 @@
         <v>758771</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>500112</v>
@@ -2690,7 +2874,7 @@
         <v>743242.4</v>
       </c>
       <c r="G41" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H41">
         <v>1.6450499999999999</v>
@@ -2708,12 +2892,15 @@
         <v>80.624939999999995</v>
       </c>
       <c r="M41" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>1.3009999999999999</v>
@@ -2722,7 +2909,7 @@
         <v>351555</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>532215</v>
@@ -2731,7 +2918,7 @@
         <v>343200.6</v>
       </c>
       <c r="G42" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H42">
         <v>9.0179999999999996E-2</v>
@@ -2749,12 +2936,15 @@
         <v>84.34178</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="B43">
         <v>0.35799999999999998</v>
@@ -2763,7 +2953,7 @@
         <v>96879</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>540133</v>
@@ -2772,7 +2962,7 @@
         <v>95311.26</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>9.0980000000000005E-2</v>
@@ -2790,21 +2980,24 @@
         <v>5.8196199999999996</v>
       </c>
       <c r="M43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B44">
-        <v>0.49899999999999989</v>
+        <v>0.499</v>
       </c>
       <c r="C44">
         <v>134868</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>540777</v>
@@ -2813,7 +3006,7 @@
         <v>134204.4</v>
       </c>
       <c r="G44" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H44">
         <v>0.32074000000000003</v>
@@ -2831,12 +3024,15 @@
         <v>7.0637999999999996</v>
       </c>
       <c r="M44" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B45">
         <v>1.258</v>
@@ -2845,7 +3041,7 @@
         <v>340000</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>532538</v>
@@ -2854,7 +3050,7 @@
         <v>336357.7</v>
       </c>
       <c r="G45" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H45">
         <v>0.59979000000000005</v>
@@ -2872,12 +3068,15 @@
         <v>244.70500000000001</v>
       </c>
       <c r="M45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B46">
         <v>1.397</v>
@@ -2886,7 +3085,7 @@
         <v>377647</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E46">
         <v>500520</v>
@@ -2895,7 +3094,7 @@
         <v>361361.6</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H46">
         <v>0.69991999999999999</v>
@@ -2913,12 +3112,15 @@
         <v>97.008240000000001</v>
       </c>
       <c r="M46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="B47">
         <v>0.67300000000000004</v>
@@ -2927,7 +3129,7 @@
         <v>181823</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>500470</v>
@@ -2936,7 +3138,7 @@
         <v>178839.1</v>
       </c>
       <c r="G47" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>2.5129100000000002</v>
@@ -2951,12 +3153,15 @@
         <v>2.3560000000000001E-2</v>
       </c>
       <c r="M47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B48">
         <v>0.75800000000000001</v>
@@ -2965,7 +3170,7 @@
         <v>204849</v>
       </c>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E48">
         <v>543257</v>
@@ -2974,7 +3179,7 @@
         <v>199739.1</v>
       </c>
       <c r="G48" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>0.98141999999999996</v>
@@ -2992,12 +3197,15 @@
         <v>4.9035599999999997</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <v>0.42599999999999999</v>
@@ -3006,7 +3214,7 @@
         <v>115121</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E49">
         <v>500825</v>
@@ -3015,7 +3223,7 @@
         <v>115273.60000000001</v>
       </c>
       <c r="G49" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H49">
         <v>1.5358099999999999</v>
@@ -3033,12 +3241,15 @@
         <v>88.911860000000004</v>
       </c>
       <c r="M49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="B50">
         <v>1.29</v>
@@ -3047,7 +3258,7 @@
         <v>348683</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E50">
         <v>532500</v>
@@ -3056,7 +3267,7 @@
         <v>344439</v>
       </c>
       <c r="G50" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H50">
         <v>1.141</v>
@@ -3074,12 +3285,15 @@
         <v>431.4726</v>
       </c>
       <c r="M50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <v>1.1359999999999999</v>
@@ -3088,7 +3302,7 @@
         <v>306920</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E51">
         <v>532898</v>
@@ -3097,7 +3311,7 @@
         <v>299153.90000000002</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H51">
         <v>3.6530399999999998</v>
@@ -3115,12 +3329,15 @@
         <v>16.77094</v>
       </c>
       <c r="M51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B52">
         <v>0.78600000000000003</v>
@@ -3129,7 +3346,7 @@
         <v>212394</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E52">
         <v>500790</v>
@@ -3138,7 +3355,7 @@
         <v>208296.5</v>
       </c>
       <c r="G52" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H52">
         <v>1.3654900000000001</v>
@@ -3147,12 +3364,15 @@
         <v>62.347610000000003</v>
       </c>
       <c r="M52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="B53">
         <v>0.47</v>
@@ -3161,7 +3381,7 @@
         <v>127140</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>500547</v>
@@ -3170,7 +3390,7 @@
         <v>127790.7</v>
       </c>
       <c r="G53" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>7.1295200000000003</v>
@@ -3188,12 +3408,15 @@
         <v>63.651150000000001</v>
       </c>
       <c r="M53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="B54">
         <v>0.33100000000000002</v>
@@ -3202,7 +3425,7 @@
         <v>89531.199999999997</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="E54">
         <v>500800</v>
@@ -3211,7 +3434,7 @@
         <v>89753.79</v>
       </c>
       <c r="G54" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>0.84387999999999996</v>
@@ -3229,21 +3452,24 @@
         <v>13.7768</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B55">
-        <v>5.1839999999999993</v>
+        <v>5.1840000000000002</v>
       </c>
       <c r="C55">
         <v>1401190</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>500180</v>
@@ -3252,7 +3478,7 @@
         <v>1371616</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H55">
         <v>1.0872599999999999</v>
@@ -3270,12 +3496,15 @@
         <v>89.778570000000002</v>
       </c>
       <c r="M55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B56">
         <v>0.60799999999999998</v>
@@ -3284,7 +3513,7 @@
         <v>164345</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E56">
         <v>532810</v>
@@ -3293,7 +3522,7 @@
         <v>158553.4</v>
       </c>
       <c r="G56" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H56">
         <v>2.54969</v>
@@ -3311,12 +3540,15 @@
         <v>56.200290000000003</v>
       </c>
       <c r="M56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B57">
         <v>1.151</v>
@@ -3325,7 +3557,7 @@
         <v>311047</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E57">
         <v>500312</v>
@@ -3334,7 +3566,7 @@
         <v>304254.09999999998</v>
       </c>
       <c r="G57" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H57">
         <v>5.1684900000000003</v>
@@ -3352,12 +3584,15 @@
         <v>41.168219999999998</v>
       </c>
       <c r="M57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B58">
         <v>0.38500000000000001</v>
@@ -3366,7 +3601,7 @@
         <v>104134</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E58">
         <v>500124</v>
@@ -3375,7 +3610,7 @@
         <v>110432.1</v>
       </c>
       <c r="G58" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H58">
         <v>0.60350000000000004</v>
@@ -3393,12 +3628,15 @@
         <v>66.084810000000004</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="B59">
         <v>0.84</v>
@@ -3407,7 +3645,7 @@
         <v>226932</v>
       </c>
       <c r="D59" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E59">
         <v>500049</v>
@@ -3416,7 +3654,7 @@
         <v>218196.9</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H59">
         <v>0.73702000000000001</v>
@@ -3434,12 +3672,15 @@
         <v>5.5427600000000004</v>
       </c>
       <c r="M59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="B60">
         <v>0.36099999999999999</v>
@@ -3448,7 +3689,7 @@
         <v>97554.4</v>
       </c>
       <c r="D60" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E60">
         <v>532321</v>
@@ -3457,7 +3698,7 @@
         <v>99174.43</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H60">
         <v>0.30437999999999998</v>
@@ -3475,12 +3716,15 @@
         <v>37.919119999999999</v>
       </c>
       <c r="M60" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="N60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="B61">
         <v>6.234</v>
@@ -3489,7 +3733,7 @@
         <v>1684920</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E61">
         <v>500325</v>
@@ -3498,7 +3742,7 @@
         <v>1665091</v>
       </c>
       <c r="G61" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H61">
         <v>0.40636</v>
@@ -3516,12 +3760,15 @@
         <v>51.595080000000003</v>
       </c>
       <c r="M61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B62">
         <v>1.9370000000000001</v>
@@ -3530,7 +3777,7 @@
         <v>523554</v>
       </c>
       <c r="D62" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E62">
         <v>500510</v>
@@ -3539,7 +3786,7 @@
         <v>511046.7</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H62">
         <v>0.75343000000000004</v>
@@ -3557,12 +3804,15 @@
         <v>89.149069999999995</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B63">
         <v>0.97</v>
@@ -3571,7 +3821,7 @@
         <v>262164</v>
       </c>
       <c r="D63" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E63">
         <v>532978</v>
@@ -3580,7 +3830,7 @@
         <v>253452.6</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H63">
         <v>6.2909999999999994E-2</v>
@@ -3598,12 +3848,15 @@
         <v>71.737930000000006</v>
       </c>
       <c r="M63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="B64">
         <v>0.91800000000000004</v>
@@ -3612,7 +3865,7 @@
         <v>248235</v>
       </c>
       <c r="D64" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E64">
         <v>533278</v>
@@ -3621,7 +3874,7 @@
         <v>241548.1</v>
       </c>
       <c r="G64" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H64">
         <v>6.6334999999999997</v>
@@ -3639,12 +3892,15 @@
         <v>60.711489999999998</v>
       </c>
       <c r="M64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="B65">
         <v>0.245</v>
@@ -3653,7 +3909,7 @@
         <v>66160</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E65">
         <v>542830</v>
@@ -3662,7 +3918,7 @@
         <v>64444</v>
       </c>
       <c r="G65" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H65">
         <v>0.99311000000000005</v>
@@ -3680,12 +3936,15 @@
         <v>14.4321</v>
       </c>
       <c r="M65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="B66">
         <v>0.83599999999999997</v>
@@ -3694,7 +3953,7 @@
         <v>226064</v>
       </c>
       <c r="D66" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E66">
         <v>500820</v>
@@ -3703,7 +3962,7 @@
         <v>219720.2</v>
       </c>
       <c r="G66" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H66">
         <v>1.41371</v>
@@ -3721,12 +3980,15 @@
         <v>56.87773</v>
       </c>
       <c r="M66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="B67">
         <v>5.7889999999999997</v>
@@ -3735,7 +3997,7 @@
         <v>1564610</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E67">
         <v>532540</v>
@@ -3744,7 +4006,7 @@
         <v>1545611</v>
       </c>
       <c r="G67" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H67">
         <v>1.3343</v>
@@ -3762,12 +4024,15 @@
         <v>127.8087</v>
       </c>
       <c r="M67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="N67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="B68">
         <v>0.48099999999999998</v>
@@ -3776,7 +4041,7 @@
         <v>130009</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E68">
         <v>505200</v>
@@ -3785,7 +4050,7 @@
         <v>130814.6</v>
       </c>
       <c r="G68" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H68">
         <v>1.0687500000000001</v>
@@ -3803,12 +4068,15 @@
         <v>145.9605</v>
       </c>
       <c r="M68" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B69">
         <v>0.73399999999999999</v>
@@ -3817,7 +4085,7 @@
         <v>198403</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E69">
         <v>530965</v>
@@ -3826,7 +4094,7 @@
         <v>197160.7</v>
       </c>
       <c r="G69" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H69">
         <v>8.5947600000000008</v>
@@ -3844,12 +4112,15 @@
         <v>30.43824</v>
       </c>
       <c r="M69" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="N69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="B70">
         <v>0.72799999999999998</v>
@@ -3858,7 +4129,7 @@
         <v>196732</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E70">
         <v>500295</v>
@@ -3867,7 +4138,7 @@
         <v>192195.1</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H70">
         <v>9.5808800000000005</v>
@@ -3885,12 +4156,15 @@
         <v>23.84422</v>
       </c>
       <c r="M70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="B71">
         <v>0.39100000000000001</v>
@@ -3908,7 +4182,7 @@
         <v>104803.6</v>
       </c>
       <c r="G71" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H71">
         <v>1.05532</v>
@@ -3926,12 +4200,15 @@
         <v>636.31209999999999</v>
       </c>
       <c r="M71" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B72">
         <v>0.45100000000000001</v>
@@ -3940,7 +4217,7 @@
         <v>121825</v>
       </c>
       <c r="D72" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E72">
         <v>532461</v>
@@ -3949,7 +4226,7 @@
         <v>118975</v>
       </c>
       <c r="G72" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H72">
         <v>1.4490000000000001</v>
@@ -3967,12 +4244,15 @@
         <v>7.8446400000000001</v>
       </c>
       <c r="M72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N72" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B73">
         <v>0.35299999999999998</v>
@@ -3981,7 +4261,7 @@
         <v>95377.9</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E73">
         <v>532483</v>
@@ -3990,7 +4270,7 @@
         <v>93337</v>
       </c>
       <c r="G73" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H73">
         <v>3.1292499999999999</v>
@@ -4008,12 +4288,15 @@
         <v>17.469149999999999</v>
       </c>
       <c r="M73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="B74">
         <v>0.40100000000000002</v>
@@ -4022,7 +4305,7 @@
         <v>108514</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E74">
         <v>517354</v>
@@ -4031,7 +4314,7 @@
         <v>106150.6</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H74">
         <v>0.53154999999999997</v>
@@ -4049,12 +4332,15 @@
         <v>20.364129999999999</v>
       </c>
       <c r="M74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="B75">
         <v>0.41199999999999998</v>
@@ -4063,7 +4349,7 @@
         <v>111421</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E75">
         <v>532424</v>
@@ -4072,7 +4358,7 @@
         <v>110326.3</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H75">
         <v>1.8545100000000001</v>
@@ -4087,12 +4373,15 @@
         <v>10.22123</v>
       </c>
       <c r="M75" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="B76">
         <v>0.48499999999999999</v>
@@ -4101,7 +4390,7 @@
         <v>131140</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E76">
         <v>532155</v>
@@ -4110,7 +4399,7 @@
         <v>127307.1</v>
       </c>
       <c r="G76" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H76">
         <v>2.8406199999999999</v>
@@ -4128,12 +4417,15 @@
         <v>15.344060000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N76" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>0.312</v>
@@ -4142,7 +4434,7 @@
         <v>84387.8</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>500103</v>
@@ -4151,7 +4443,7 @@
         <v>84352.99</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H77">
         <v>0.1032</v>
@@ -4169,12 +4461,15 @@
         <v>0.79383999999999999</v>
       </c>
       <c r="M77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="B78">
         <v>0.67</v>
@@ -4183,7 +4478,7 @@
         <v>181023</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E78">
         <v>541450</v>
@@ -4192,7 +4487,7 @@
         <v>170069.7</v>
       </c>
       <c r="G78" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I78">
         <v>147.93950000000001</v>
@@ -4204,21 +4499,24 @@
         <v>7.2573600000000003</v>
       </c>
       <c r="M78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="N78" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="B79">
-        <v>0.53099999999999992</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C79">
         <v>143485</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E79">
         <v>500440</v>
@@ -4227,7 +4525,7 @@
         <v>140721.29999999999</v>
       </c>
       <c r="G79" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H79">
         <v>0.55613000000000001</v>
@@ -4245,12 +4543,15 @@
         <v>47.25902</v>
       </c>
       <c r="M79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B80">
         <v>0.85299999999999998</v>
@@ -4259,7 +4560,7 @@
         <v>230597</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E80">
         <v>540376</v>
@@ -4268,7 +4569,7 @@
         <v>227636.2</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="I80">
         <v>89.818259999999995</v>
@@ -4280,12 +4581,15 @@
         <v>38.946980000000003</v>
       </c>
       <c r="M80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="N80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B81">
         <v>1.026</v>
@@ -4294,7 +4598,7 @@
         <v>277315</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E81">
         <v>500550</v>
@@ -4303,7 +4607,7 @@
         <v>271796.5</v>
       </c>
       <c r="G81" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H81">
         <v>0.13102</v>
@@ -4321,12 +4625,15 @@
         <v>70.254559999999998</v>
       </c>
       <c r="M81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="B82">
         <v>0.79900000000000004</v>
@@ -4335,7 +4642,7 @@
         <v>215872</v>
       </c>
       <c r="D82" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E82">
         <v>532868</v>
@@ -4344,7 +4651,7 @@
         <v>213966</v>
       </c>
       <c r="G82" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H82">
         <v>0.57843999999999995</v>
@@ -4362,12 +4669,15 @@
         <v>11.01928</v>
       </c>
       <c r="M82" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="N82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B83">
         <v>0.35099999999999998</v>
@@ -4376,7 +4686,7 @@
         <v>94874.3</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E83">
         <v>540716</v>
@@ -4385,7 +4695,7 @@
         <v>93980.4</v>
       </c>
       <c r="G83" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H83">
         <v>0.60589999999999999</v>
@@ -4403,12 +4713,15 @@
         <v>40.27646</v>
       </c>
       <c r="M83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="B84">
         <v>0.28100000000000003</v>
@@ -4417,7 +4730,7 @@
         <v>75968.5</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="E84">
         <v>532187</v>
@@ -4426,7 +4739,7 @@
         <v>75131.740000000005</v>
       </c>
       <c r="G84" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H84">
         <v>1.7109099999999999</v>
@@ -4444,12 +4757,15 @@
         <v>120.65219999999999</v>
       </c>
       <c r="M84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="B85">
         <v>0.874</v>
@@ -4458,7 +4774,7 @@
         <v>236365</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E85">
         <v>500228</v>
@@ -4467,7 +4783,7 @@
         <v>225892.6</v>
       </c>
       <c r="G85" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H85">
         <v>0.78837999999999997</v>
@@ -4485,12 +4801,15 @@
         <v>34.807960000000001</v>
       </c>
       <c r="M85" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B86">
         <v>0.35899999999999999</v>
@@ -4499,7 +4818,7 @@
         <v>97092</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E86">
         <v>532286</v>
@@ -4508,7 +4827,7 @@
         <v>93326.53</v>
       </c>
       <c r="G86" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H86">
         <v>0.21682999999999999</v>
@@ -4526,12 +4845,15 @@
         <v>58.608530000000002</v>
       </c>
       <c r="M86" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="B87">
         <v>0.42799999999999999</v>
@@ -4540,7 +4862,7 @@
         <v>115677</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E87">
         <v>517334</v>
@@ -4549,7 +4871,7 @@
         <v>110863.9</v>
       </c>
       <c r="G87" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H87">
         <v>0.50773999999999997</v>
@@ -4567,12 +4889,15 @@
         <v>4.33901</v>
       </c>
       <c r="M87" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="B88">
         <v>0.32600000000000001</v>
@@ -4581,7 +4906,7 @@
         <v>88214.8</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E88">
         <v>500182</v>
@@ -4590,7 +4915,7 @@
         <v>88138.79</v>
       </c>
       <c r="G88" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H88">
         <v>2.6095100000000002</v>
@@ -4608,12 +4933,15 @@
         <v>192.88040000000001</v>
       </c>
       <c r="M88" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N88" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="B89">
         <v>3.5779999999999998</v>
@@ -4622,7 +4950,7 @@
         <v>967150</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E89">
         <v>532454</v>
@@ -4631,7 +4959,7 @@
         <v>957503.4</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H89">
         <v>0.49991000000000002</v>
@@ -4649,21 +4977,24 @@
         <v>14.43411</v>
       </c>
       <c r="M89" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="N89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="B90">
-        <v>0.43099999999999988</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="C90">
         <v>116578</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E90">
         <v>532343</v>
@@ -4672,7 +5003,7 @@
         <v>116768.5</v>
       </c>
       <c r="G90" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H90">
         <v>0.32524999999999998</v>
@@ -4690,12 +5021,15 @@
         <v>34.21002</v>
       </c>
       <c r="M90" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="N90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="B91">
         <v>0.35299999999999998</v>
@@ -4704,7 +5038,7 @@
         <v>95420.1</v>
       </c>
       <c r="D91" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="E91">
         <v>532477</v>
@@ -4713,7 +5047,7 @@
         <v>92366.63</v>
       </c>
       <c r="G91" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H91">
         <v>2.9752100000000001</v>
@@ -4731,12 +5065,15 @@
         <v>18.836819999999999</v>
       </c>
       <c r="M91" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="B92">
         <v>0.38800000000000001</v>
@@ -4745,7 +5082,7 @@
         <v>104765</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="E92">
         <v>511243</v>
@@ -4754,7 +5091,7 @@
         <v>102049.8</v>
       </c>
       <c r="G92" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H92">
         <v>0.16478000000000001</v>
@@ -4772,12 +5109,15 @@
         <v>52.786380000000001</v>
       </c>
       <c r="M92" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="N92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="B93">
         <v>0.63300000000000001</v>
@@ -4786,7 +5126,7 @@
         <v>171219</v>
       </c>
       <c r="D93" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="E93">
         <v>500300</v>
@@ -4795,7 +5135,7 @@
         <v>170494.9</v>
       </c>
       <c r="G93" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H93">
         <v>0.39384999999999998</v>
@@ -4813,12 +5153,15 @@
         <v>91.348830000000007</v>
       </c>
       <c r="M93" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="B94">
         <v>0.57899999999999996</v>
@@ -4827,7 +5170,7 @@
         <v>156577</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="E94">
         <v>500331</v>
@@ -4836,7 +5179,7 @@
         <v>152034.29999999999</v>
       </c>
       <c r="G94" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H94">
         <v>0.5353</v>
@@ -4854,12 +5197,15 @@
         <v>35.378480000000003</v>
       </c>
       <c r="M94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="N94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="B95">
         <v>0.41399999999999998</v>
@@ -4868,7 +5214,7 @@
         <v>111896</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="E95">
         <v>511218</v>
@@ -4877,7 +5223,7 @@
         <v>110766.2</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="H95">
         <v>1.59568</v>
@@ -4895,10 +5241,18 @@
         <v>285.43</v>
       </c>
       <c r="M95" t="s">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="N95" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>